--- a/2016-07-12/FIME-5A/Exam003/db/questions.xlsx
+++ b/2016-07-12/FIME-5A/Exam003/db/questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Courses\2016-07-12\FIME-5A\Homework002\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Courses\2016-07-12\FIME-5A\Exam003\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:BB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,43 +1222,43 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:O17" ca="1" si="0">RANDBETWEEN(2,9)</f>
-        <v>2</v>
+        <f t="shared" ref="E2:O13" ca="1" si="0">RANDBETWEEN(2,9)</f>
+        <v>4</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
@@ -1270,35 +1270,35 @@
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:X18" ca="1" si="1">RANDBETWEEN(2,9)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(2,9)</f>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="X2">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y2">
         <f t="shared" ref="Y2:AB18" ca="1" si="2">RANDBETWEEN(2,9)</f>
@@ -1314,15 +1314,15 @@
       </c>
       <c r="Z2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AB2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -1338,19 +1338,19 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
@@ -1366,11 +1366,11 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
@@ -1378,15 +1378,15 @@
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="1"/>
@@ -1394,47 +1394,47 @@
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
@@ -1446,43 +1446,43 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="1"/>
@@ -1526,19 +1526,19 @@
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="2"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
@@ -1566,43 +1566,43 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
@@ -1610,15 +1610,15 @@
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="1"/>
@@ -1626,27 +1626,27 @@
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="2"/>
@@ -1654,11 +1654,11 @@
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
@@ -1670,27 +1670,27 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
@@ -1698,55 +1698,55 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
@@ -1754,11 +1754,11 @@
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="2"/>
@@ -1766,11 +1766,11 @@
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
@@ -1782,11 +1782,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
@@ -1794,15 +1794,15 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
@@ -1810,71 +1810,71 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="2"/>
@@ -1894,11 +1894,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
@@ -1906,19 +1906,19 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
@@ -1934,19 +1934,19 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
@@ -1954,19 +1954,19 @@
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
@@ -1974,27 +1974,27 @@
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
@@ -2006,67 +2006,67 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="1"/>
@@ -2074,35 +2074,35 @@
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="2"/>
@@ -2118,55 +2118,55 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(2,9)</f>
+        <v>5</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="1"/>
@@ -2174,19 +2174,19 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="1"/>
@@ -2194,31 +2194,31 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
@@ -2234,27 +2234,27 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
@@ -2262,75 +2262,75 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -2342,31 +2342,31 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
@@ -2378,19 +2378,19 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="1"/>
@@ -2398,31 +2398,31 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="1"/>
@@ -2430,19 +2430,19 @@
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
@@ -2454,27 +2454,27 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <f t="shared" ref="E13:O18" ca="1" si="4">RANDBETWEEN(2,9)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
@@ -2482,35 +2482,35 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
@@ -2518,11 +2518,11 @@
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="1"/>
@@ -2530,31 +2530,31 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
@@ -2566,23 +2566,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
@@ -2590,43 +2590,43 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="1"/>
@@ -2634,11 +2634,11 @@
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="1"/>
@@ -2650,23 +2650,23 @@
       </c>
       <c r="X14">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y14">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Z14">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA14">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
@@ -2678,15 +2678,15 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="4"/>
@@ -2694,59 +2694,59 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="1"/>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W15">
         <f t="shared" ca="1" si="1"/>
@@ -2770,15 +2770,15 @@
       </c>
       <c r="Z15">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA15">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
@@ -2798,19 +2798,19 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="4"/>
@@ -2834,15 +2834,15 @@
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
@@ -2850,47 +2850,47 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X16">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y16">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AA16">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -2902,71 +2902,71 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="1"/>
@@ -2974,15 +2974,15 @@
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W17">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X17">
         <f t="shared" ca="1" si="1"/>
@@ -2990,19 +2990,19 @@
       </c>
       <c r="Y17">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA17">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C18">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <f ca="1">RANDBETWEEN(2,9)</f>
@@ -3022,19 +3022,19 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
@@ -3042,39 +3042,39 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O18">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="1"/>
@@ -3082,19 +3082,19 @@
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W18">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X18">
         <f ca="1">RANDBETWEEN(2,9)</f>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="Y18">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z18">
         <f t="shared" ca="1" si="2"/>
@@ -3110,11 +3110,11 @@
       </c>
       <c r="AA18">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
